--- a/dist/erngenturis.xlsx
+++ b/dist/erngenturis.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="88">
   <si>
     <t>ernstats</t>
   </si>
@@ -25,7 +25,7 @@
     <t>ERN Genturis Stats</t>
   </si>
   <si>
-    <t>Descriptives on enrolled patients and data providers (v1.0.0, 2022-06-03)</t>
+    <t>Descriptives on enrolled patients and data providers (v1.1.0, 2022-06-17)</t>
   </si>
   <si>
     <t>dataproviders</t>
@@ -55,12 +55,24 @@
     <t>name</t>
   </si>
   <si>
+    <t>displayName</t>
+  </si>
+  <si>
+    <t>hasSubmittedData</t>
+  </si>
+  <si>
     <t>city</t>
   </si>
   <si>
     <t>country</t>
   </si>
   <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
     <t>codesystem</t>
   </si>
   <si>
@@ -70,13 +82,7 @@
     <t>iri</t>
   </si>
   <si>
-    <t>hasSubmittedData</t>
-  </si>
-  <si>
-    <t>longitude</t>
-  </si>
-  <si>
-    <t>latitude</t>
+    <t>projectName</t>
   </si>
   <si>
     <t>id</t>
@@ -100,12 +106,24 @@
     <t>An established society, corporation, foundation or other organization founded and united for a specific purpose, e.g. for health-related research; also used to refer to a building or buildings occupied or used by such organization.</t>
   </si>
   <si>
+    <t>The standardized text associated with a code in a particular code system.</t>
+  </si>
+  <si>
+    <t>An indication that a file has been submitted to a data repository.</t>
+  </si>
+  <si>
     <t>A large and densely populated urban area; a city specified in an address.</t>
   </si>
   <si>
     <t>A collective generic term that refers here to a wide variety of dependencies, areas of special sovereignty, uninhabited islands, and other entities in addition to the traditional countries or independent states.</t>
   </si>
   <si>
+    <t>An imaginary great circle on the surface of a heavenly body passing through the poles at right angles to the equator.</t>
+  </si>
+  <si>
+    <t>The angular distance north or south between an imaginary line around a heavenly body parallel to its equator and the equator itself.</t>
+  </si>
+  <si>
     <t>A systematized collection of concepts that define corresponding codes.</t>
   </si>
   <si>
@@ -115,13 +133,7 @@
     <t>A unique symbol that establishes identity of the resource.</t>
   </si>
   <si>
-    <t>An indication that a file has been submitted to a data repository.</t>
-  </si>
-  <si>
-    <t>An imaginary great circle on the surface of a heavenly body passing through the poles at right angles to the equator.</t>
-  </si>
-  <si>
-    <t>The angular distance north or south between an imaginary line around a heavenly body parallel to its equator and the equator itself.</t>
+    <t>Original institution name as defined by the GENTURIS project (prior to cleaning)</t>
   </si>
   <si>
     <t>title to be rendered into the app (e.g., section heading, component title, table heading, etc)</t>
@@ -142,27 +154,39 @@
     <t>string</t>
   </si>
   <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
     <t>hyperlink</t>
   </si>
   <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>decimal</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
     <t>NCIT_C41206</t>
   </si>
   <si>
+    <t>NCIT_C70896</t>
+  </si>
+  <si>
+    <t>NCIT_C172872</t>
+  </si>
+  <si>
     <t>NCIT_C25160</t>
   </si>
   <si>
     <t>NCIT_C25464</t>
   </si>
   <si>
+    <t>NCIT_C68643</t>
+  </si>
+  <si>
+    <t>NCIT_C68642</t>
+  </si>
+  <si>
     <t>NCIT_C70895</t>
   </si>
   <si>
@@ -172,15 +196,6 @@
     <t>NCIT_C165071</t>
   </si>
   <si>
-    <t>NCIT_C172872</t>
-  </si>
-  <si>
-    <t>NCIT_C68643</t>
-  </si>
-  <si>
-    <t>NCIT_C68642</t>
-  </si>
-  <si>
     <t>package</t>
   </si>
   <si>
@@ -214,31 +229,34 @@
     <t>auto</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25162</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25160</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C165071</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C172872</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C70896</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25464</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C70895</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C165071</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C68642</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C41206</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C68643</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C41206</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C25162</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C25160</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C25464</t>
   </si>
   <si>
     <t>NCIT</t>
@@ -633,10 +651,10 @@
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -665,16 +683,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -712,7 +730,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -720,40 +738,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -764,10 +782,10 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -785,7 +803,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
@@ -799,10 +817,10 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -811,7 +829,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
@@ -825,10 +843,10 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -837,7 +855,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K4" t="b">
         <v>1</v>
@@ -851,7 +869,10 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -860,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K5" t="b">
         <v>1</v>
@@ -874,7 +895,10 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -883,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K6" t="b">
         <v>1</v>
@@ -897,10 +921,10 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -909,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
@@ -923,10 +947,10 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -935,7 +959,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K8" t="b">
         <v>1</v>
@@ -949,10 +973,7 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -961,7 +982,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
@@ -975,10 +996,7 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -987,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
@@ -995,39 +1013,42 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>58</v>
       </c>
       <c r="K11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -1046,25 +1067,19 @@
       <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
-      </c>
       <c r="E13" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="b">
         <v>1</v>
       </c>
       <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1076,10 +1091,10 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -1099,13 +1114,19 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
@@ -1122,18 +1143,64 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
         <v>44</v>
       </c>
-      <c r="E16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="K16" t="b">
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1144,7 +1211,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1152,202 +1219,222 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1370,6 +1457,8 @@
     <hyperlink ref="F9" r:id="rId16" location="isAssociatedWith"/>
     <hyperlink ref="C10" r:id="rId17"/>
     <hyperlink ref="F10" r:id="rId18" location="isAssociatedWith"/>
+    <hyperlink ref="C11" r:id="rId19"/>
+    <hyperlink ref="F11" r:id="rId20" location="isAssociatedWith"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dist/erngenturis.xlsx
+++ b/dist/erngenturis.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="91">
   <si>
     <t>ernstats</t>
   </si>
@@ -25,7 +25,7 @@
     <t>ERN Genturis Stats</t>
   </si>
   <si>
-    <t>Descriptives on enrolled patients and data providers (v1.1.0, 2022-06-17)</t>
+    <t>Descriptives on enrolled patients and data providers (v1.1.1, 2022-10-10)</t>
   </si>
   <si>
     <t>dataproviders</t>
@@ -97,6 +97,9 @@
     <t>value</t>
   </si>
   <si>
+    <t>valueOrder</t>
+  </si>
+  <si>
     <t>component</t>
   </si>
   <si>
@@ -145,6 +148,9 @@
     <t>raw data value</t>
   </si>
   <si>
+    <t>integer specifying the order of a value in an array (ideal for tables, charts)</t>
+  </si>
+  <si>
     <t>name of the component that the current will be used in</t>
   </si>
   <si>
@@ -163,6 +169,9 @@
     <t>hyperlink</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>text</t>
   </si>
   <si>
@@ -226,34 +235,34 @@
     <t>visible</t>
   </si>
   <si>
-    <t>auto</t>
+    <t>defaultValue</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25160</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25464</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C41206</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C70895</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C172872</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C70896</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C165071</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C68642</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C25162</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C25160</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C165071</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C172872</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C70896</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C25464</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C70895</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C68642</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C41206</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C68643</t>
@@ -654,7 +663,7 @@
         <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -683,7 +692,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
@@ -692,7 +701,7 @@
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -730,7 +739,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -738,40 +747,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -782,10 +791,10 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -803,7 +812,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
@@ -817,10 +826,10 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -829,7 +838,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
@@ -843,10 +852,10 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -855,7 +864,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K4" t="b">
         <v>1</v>
@@ -869,10 +878,10 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -881,7 +890,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K5" t="b">
         <v>1</v>
@@ -895,10 +904,10 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -907,7 +916,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K6" t="b">
         <v>1</v>
@@ -921,10 +930,10 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -933,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
@@ -947,10 +956,10 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -959,7 +968,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K8" t="b">
         <v>1</v>
@@ -973,7 +982,7 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -982,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
@@ -996,7 +1005,7 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -1005,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
@@ -1019,10 +1028,10 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -1031,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K11" t="b">
         <v>1</v>
@@ -1045,10 +1054,10 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -1079,9 +1088,6 @@
       <c r="K13" t="b">
         <v>1</v>
       </c>
-      <c r="L13" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
@@ -1091,10 +1097,10 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -1114,10 +1120,10 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -1143,10 +1149,10 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -1158,7 +1164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1166,10 +1172,10 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -1180,8 +1186,11 @@
       <c r="K17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1189,10 +1198,10 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -1201,6 +1210,29 @@
         <v>1</v>
       </c>
       <c r="K18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1219,122 +1251,122 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1345,96 +1377,96 @@
         <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/dist/erngenturis.xlsx
+++ b/dist/erngenturis.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="104">
   <si>
     <t>ernstats</t>
   </si>
@@ -25,7 +25,7 @@
     <t>ERN Genturis Stats</t>
   </si>
   <si>
-    <t>Descriptives on enrolled patients and data providers (v1.1.1, 2022-10-10)</t>
+    <t>Descriptives on enrolled patients and data providers (v1.2.0, 2022-12-01)</t>
   </si>
   <si>
     <t>dataproviders</t>
@@ -52,220 +52,259 @@
     <t>ernstats_stats</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>databaseID</t>
+  </si>
+  <si>
+    <t>projectName</t>
+  </si>
+  <si>
+    <t>hasSubmittedData</t>
+  </si>
+  <si>
+    <t>organisationInfo</t>
+  </si>
+  <si>
+    <t>centerType</t>
+  </si>
+  <si>
+    <t>centerRepresentative</t>
+  </si>
+  <si>
+    <t>iri</t>
+  </si>
+  <si>
+    <t>codesystem</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>additionalInformation</t>
+  </si>
+  <si>
+    <t>displayName</t>
+  </si>
+  <si>
+    <t>officialName</t>
+  </si>
+  <si>
+    <t>centerProjectUrl</t>
+  </si>
+  <si>
+    <t>centerLocation</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>valueOrder</t>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>identifier of the institution from ROR</t>
+  </si>
+  <si>
+    <t>The identifier of the emx package for this organisation</t>
+  </si>
+  <si>
+    <t>Original institution name as defined by the project</t>
+  </si>
+  <si>
+    <t>An indication that a file has been submitted to a data repository.</t>
+  </si>
+  <si>
+    <t>A unique symbol that establishes identity of the resource.</t>
+  </si>
+  <si>
+    <t>A systematized collection of concepts that define corresponding codes.</t>
+  </si>
+  <si>
+    <t>The standardized text associated with a code in a particular code system.</t>
+  </si>
+  <si>
+    <t>An established society, corporation, foundation or other organization founded and united for a specific purpose, e.g. for health-related research; also used to refer to a building or buildings occupied or used by such organization.</t>
+  </si>
+  <si>
+    <t>A large and densely populated urban area; a city specified in an address.</t>
+  </si>
+  <si>
+    <t>A collective generic term that refers here to a wide variety of dependencies, areas of special sovereignty, uninhabited islands, and other entities in addition to the traditional countries or independent states.</t>
+  </si>
+  <si>
+    <t>The angular distance north or south between an imaginary line around a heavenly body parallel to its equator and the equator itself.</t>
+  </si>
+  <si>
+    <t>An imaginary great circle on the surface of a heavenly body passing through the poles at right angles to the equator.</t>
+  </si>
+  <si>
+    <t>title to be rendered into the app (e.g., section heading, component title, table heading, etc)</t>
+  </si>
+  <si>
+    <t>string that describes the value</t>
+  </si>
+  <si>
+    <t>raw data value</t>
+  </si>
+  <si>
+    <t>integer specifying the order of a value in an array (ideal for tables, charts)</t>
+  </si>
+  <si>
+    <t>name of the component that the current will be used in</t>
+  </si>
+  <si>
+    <t>additional information about this record</t>
+  </si>
+  <si>
+    <t>NCIT_C25162</t>
+  </si>
+  <si>
+    <t>NCIT_C172872</t>
+  </si>
+  <si>
+    <t>NCIT_C51875</t>
+  </si>
+  <si>
+    <t>NCIT_C165071</t>
+  </si>
+  <si>
+    <t>NCIT_C70895</t>
+  </si>
+  <si>
+    <t>NCIT_C70896</t>
+  </si>
+  <si>
+    <t>NCIT_C25341</t>
+  </si>
+  <si>
+    <t>NCIT_C25160</t>
+  </si>
+  <si>
+    <t>NCIT_C25464</t>
+  </si>
+  <si>
+    <t>NCIT_C68642</t>
+  </si>
+  <si>
+    <t>NCIT_C68643</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>hyperlink</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
-    <t>displayName</t>
-  </si>
-  <si>
-    <t>hasSubmittedData</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>longitude</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>codesystem</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>iri</t>
-  </si>
-  <si>
-    <t>projectName</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>valueOrder</t>
-  </si>
-  <si>
-    <t>component</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>An established society, corporation, foundation or other organization founded and united for a specific purpose, e.g. for health-related research; also used to refer to a building or buildings occupied or used by such organization.</t>
-  </si>
-  <si>
-    <t>The standardized text associated with a code in a particular code system.</t>
-  </si>
-  <si>
-    <t>An indication that a file has been submitted to a data repository.</t>
-  </si>
-  <si>
-    <t>A large and densely populated urban area; a city specified in an address.</t>
-  </si>
-  <si>
-    <t>A collective generic term that refers here to a wide variety of dependencies, areas of special sovereignty, uninhabited islands, and other entities in addition to the traditional countries or independent states.</t>
-  </si>
-  <si>
-    <t>An imaginary great circle on the surface of a heavenly body passing through the poles at right angles to the equator.</t>
-  </si>
-  <si>
-    <t>The angular distance north or south between an imaginary line around a heavenly body parallel to its equator and the equator itself.</t>
-  </si>
-  <si>
-    <t>A systematized collection of concepts that define corresponding codes.</t>
-  </si>
-  <si>
-    <t>A symbol or combination of symbols which is assigned to the members of a collection.</t>
-  </si>
-  <si>
-    <t>A unique symbol that establishes identity of the resource.</t>
-  </si>
-  <si>
-    <t>Original institution name as defined by the GENTURIS project (prior to cleaning)</t>
-  </si>
-  <si>
-    <t>title to be rendered into the app (e.g., section heading, component title, table heading, etc)</t>
-  </si>
-  <si>
-    <t>string that describes the value</t>
-  </si>
-  <si>
-    <t>raw data value</t>
-  </si>
-  <si>
-    <t>integer specifying the order of a value in an array (ideal for tables, charts)</t>
-  </si>
-  <si>
-    <t>name of the component that the current will be used in</t>
-  </si>
-  <si>
-    <t>additional information about this record</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>decimal</t>
-  </si>
-  <si>
-    <t>hyperlink</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>NCIT_C41206</t>
-  </si>
-  <si>
-    <t>NCIT_C70896</t>
-  </si>
-  <si>
-    <t>NCIT_C172872</t>
-  </si>
-  <si>
-    <t>NCIT_C25160</t>
-  </si>
-  <si>
-    <t>NCIT_C25464</t>
-  </si>
-  <si>
-    <t>NCIT_C68643</t>
-  </si>
-  <si>
-    <t>NCIT_C68642</t>
-  </si>
-  <si>
-    <t>NCIT_C70895</t>
-  </si>
-  <si>
-    <t>NCIT_C25162</t>
-  </si>
-  <si>
-    <t>NCIT_C165071</t>
-  </si>
-  <si>
     <t>package</t>
   </si>
   <si>
     <t>entity</t>
   </si>
   <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>idAttribute</t>
+  </si>
+  <si>
+    <t>labelAttribute</t>
+  </si>
+  <si>
+    <t>lookupAttribute</t>
+  </si>
+  <si>
+    <t>nillable</t>
+  </si>
+  <si>
+    <t>visible</t>
+  </si>
+  <si>
     <t>dataType</t>
   </si>
   <si>
-    <t>idAttribute</t>
-  </si>
-  <si>
-    <t>labelAttribute</t>
-  </si>
-  <si>
-    <t>lookupAttribute</t>
-  </si>
-  <si>
-    <t>nillable</t>
+    <t>partOfAttribute</t>
   </si>
   <si>
     <t>readOnly</t>
   </si>
   <si>
-    <t>tags</t>
-  </si>
-  <si>
-    <t>visible</t>
-  </si>
-  <si>
     <t>defaultValue</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25464</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C51875</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C68642</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C70896</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C68643</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25162</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25341</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C165071</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C25160</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C25464</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C41206</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C70895</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C172872</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C70896</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C165071</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C68642</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C25162</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C68643</t>
   </si>
   <si>
     <t>NCIT</t>
@@ -657,13 +696,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -692,16 +731,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -739,51 +778,54 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>83</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -791,10 +833,10 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -811,14 +853,8 @@
       <c r="I2" t="b">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -826,10 +862,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -837,14 +870,11 @@
       <c r="H3" t="b">
         <v>1</v>
       </c>
-      <c r="J3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -852,10 +882,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -863,14 +890,14 @@
       <c r="H4" t="b">
         <v>1</v>
       </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
       <c r="J4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -878,10 +905,10 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -889,77 +916,65 @@
       <c r="H5" t="b">
         <v>1</v>
       </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
       <c r="J5" t="s">
-        <v>55</v>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
       </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
       <c r="J6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>48</v>
-      </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
       </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
       <c r="J7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>65</v>
+      </c>
+      <c r="K7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -967,14 +982,17 @@
       <c r="H8" t="b">
         <v>1</v>
       </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
       <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>65</v>
+      </c>
+      <c r="K8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -982,7 +1000,10 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -990,14 +1011,17 @@
       <c r="H9" t="b">
         <v>1</v>
       </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
       <c r="J9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>68</v>
+      </c>
+      <c r="K9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1005,7 +1029,10 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -1013,14 +1040,14 @@
       <c r="H10" t="b">
         <v>1</v>
       </c>
-      <c r="J10" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1028,10 +1055,10 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -1039,68 +1066,71 @@
       <c r="H11" t="b">
         <v>1</v>
       </c>
-      <c r="J11" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
       </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="J13" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -1108,51 +1138,48 @@
       <c r="H14" t="b">
         <v>1</v>
       </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
-      <c r="F15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -1160,22 +1187,25 @@
       <c r="H16" t="b">
         <v>1</v>
       </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -1183,25 +1213,28 @@
       <c r="H17" t="b">
         <v>1</v>
       </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -1209,31 +1242,239 @@
       <c r="H18" t="b">
         <v>1</v>
       </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>65</v>
+      </c>
+      <c r="K18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>69</v>
+      </c>
+      <c r="K19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>69</v>
+      </c>
+      <c r="K20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
         <v>51</v>
       </c>
-      <c r="E19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="b">
-        <v>1</v>
-      </c>
-      <c r="K19" t="b">
-        <v>1</v>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>70</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1243,7 +1484,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1251,42 +1492,42 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1297,36 +1538,36 @@
         <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1337,136 +1578,156 @@
         <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1491,6 +1752,8 @@
     <hyperlink ref="F10" r:id="rId18" location="isAssociatedWith"/>
     <hyperlink ref="C11" r:id="rId19"/>
     <hyperlink ref="F11" r:id="rId20" location="isAssociatedWith"/>
+    <hyperlink ref="C12" r:id="rId21"/>
+    <hyperlink ref="F12" r:id="rId22" location="isAssociatedWith"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dist/erngenturis.xlsx
+++ b/dist/erngenturis.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="119">
   <si>
     <t>ernstats</t>
   </si>
@@ -25,30 +25,42 @@
     <t>ERN Genturis Stats</t>
   </si>
   <si>
-    <t>Descriptives on enrolled patients and data providers (v1.2.0, 2022-12-01)</t>
+    <t>Descriptives on enrolled patients and data providers (v1.3.0, 2023-02-20)</t>
   </si>
   <si>
     <t>dataproviders</t>
   </si>
   <si>
+    <t>inclusionCriteria</t>
+  </si>
+  <si>
     <t>stats</t>
   </si>
   <si>
     <t>Data Providers</t>
   </si>
   <si>
+    <t>Inclusion criteria</t>
+  </si>
+  <si>
     <t>Summary Statistics</t>
   </si>
   <si>
     <t>All affiliated data providers (intitutions, hospitals, etc.)</t>
   </si>
   <si>
+    <t>Define or modify inclusion criteria for each subgroup</t>
+  </si>
+  <si>
     <t>Stats used in the dashboard</t>
   </si>
   <si>
     <t>ernstats_dataproviders</t>
   </si>
   <si>
+    <t>ernstats_inclusionCriteria</t>
+  </si>
+  <si>
     <t>ernstats_stats</t>
   </si>
   <si>
@@ -109,15 +121,30 @@
     <t>longitude</t>
   </si>
   <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>groupID</t>
+  </si>
+  <si>
+    <t>groupName</t>
+  </si>
+  <si>
+    <t>criteria</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
     <t>title</t>
   </si>
   <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
     <t>valueOrder</t>
   </si>
   <si>
@@ -163,6 +190,24 @@
     <t>An imaginary great circle on the surface of a heavenly body passing through the poles at right angles to the equator.</t>
   </si>
   <si>
+    <t>table row identifier</t>
+  </si>
+  <si>
+    <t>A unique ID used to identify a group</t>
+  </si>
+  <si>
+    <t>Name of the group</t>
+  </si>
+  <si>
+    <t>A variable to identify criteria for a specific group (e.g., "genes", "disease", etc.)</t>
+  </si>
+  <si>
+    <t>values used to select rows (IDs, codes, etc.)</t>
+  </si>
+  <si>
+    <t>additional context that describes the criteria</t>
+  </si>
+  <si>
     <t>title to be rendered into the app (e.g., section heading, component title, table heading, etc)</t>
   </si>
   <si>
@@ -274,34 +319,34 @@
     <t>defaultValue</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25341</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25160</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C70895</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25162</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C68642</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C68643</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C70896</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C51875</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C165071</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C25464</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C51875</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C68642</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C70896</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C68643</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C25162</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C25341</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C165071</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C25160</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C70895</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C172872</t>
@@ -696,13 +741,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -723,7 +768,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -731,16 +776,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -751,10 +796,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -765,10 +810,24 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -778,7 +837,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -786,57 +845,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -856,13 +915,13 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -876,13 +935,13 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -894,21 +953,21 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -920,15 +979,15 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -940,15 +999,15 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -960,21 +1019,21 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -986,24 +1045,24 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -1015,50 +1074,50 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="K9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
         <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="K10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -1070,15 +1129,15 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -1090,21 +1149,21 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -1116,21 +1175,21 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -1142,18 +1201,18 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -1165,21 +1224,21 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="K15" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -1191,21 +1250,21 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -1217,24 +1276,24 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K17" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -1246,24 +1305,24 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K18" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -1275,47 +1334,50 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="K19" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" t="s">
         <v>29</v>
-      </c>
-      <c r="C20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="s">
-        <v>69</v>
-      </c>
-      <c r="K20" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
@@ -1324,21 +1386,18 @@
         <v>0</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -1348,49 +1407,34 @@
       </c>
       <c r="I22" t="b">
         <v>1</v>
-      </c>
-      <c r="J22" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
-      <c r="F23" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
         <v>1</v>
-      </c>
-      <c r="J23" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -1402,18 +1446,18 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -1424,22 +1468,19 @@
       <c r="I25" t="b">
         <v>1</v>
       </c>
-      <c r="J25" t="s">
-        <v>70</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
+      <c r="K25" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -1450,19 +1491,19 @@
       <c r="I26" t="b">
         <v>1</v>
       </c>
-      <c r="J26" t="s">
-        <v>65</v>
+      <c r="K26" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -1473,8 +1514,175 @@
       <c r="I27" t="b">
         <v>1</v>
       </c>
-      <c r="J27" t="s">
-        <v>71</v>
+      <c r="K27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>85</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1492,242 +1700,242 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E10" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E12" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
